--- a/biology/Botanique/Forêt_métropolitaine/Forêt_métropolitaine.xlsx
+++ b/biology/Botanique/Forêt_métropolitaine/Forêt_métropolitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_m%C3%A9tropolitaine</t>
+          <t>Forêt_métropolitaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt métropolitaine, en espagnol Bosque Metropolitano, est une forêt qui devrait ceinturer la ville de Madrid, en Espagne. Ce corridor vert mesurera 75 kilomètres de longueur pour une superficie de 137 hectares et comportera de 100 000 à 450 000 arbres dans le courant des années 2020.
